--- a/dist/整合結果/聯合國際/excel_by_week/2025_W25.xlsx
+++ b/dist/整合結果/聯合國際/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>川普靠加密幣賺5,740萬美元</t>
+          <t>AI修復藝術畫作？ 數位重建僅需數小時</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809041?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809965?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>東協躍南韓最大出口市場 逾20年來首次超車大陸</t>
+          <t>少了一個人登機…機組員很忙！絕不能讓行李留貨艙 空服員曝理由</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808980?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809300?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>美推進穩定幣 零售商按讚 可望作為與信用卡商議價籌碼</t>
+          <t>影／伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809036?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809984?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>韓刺激經濟 要砸146億美元</t>
+          <t>影/伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808984?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809984?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>因應當前經濟 近8成美國人改變花錢方式</t>
+          <t>日產執行長：計劃減持雷諾股票 資金投入新車開發</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809209?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809908?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>葛謨助理賀立寧閃辭 被爆曾任中資高層、隱瞞對中關係</t>
+          <t>全球最危險的旅遊國家在亞洲！新加坡榮登最安全亞軍 狠甩日本</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809211?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809896?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>全美「無王日」盤點反川示威地點、人數 圖解明州2議員遇襲處</t>
+          <t>美國搶稀土出招 考慮放貸1.2億美元給格陵蘭稀土計畫</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122664/8809152?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8809808?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗美國卻裝瞎 是全球秩序重組的前夕？</t>
+          <t>幾無牽制 以色列照自己的節奏重塑中東秩序</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8807979?from=udn-category</t>
+          <t>https://udn.com/news/story/124061/8809775?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>本周開盤前 五件國際事不可不知</t>
+          <t>千名信徒聚集廣場 宣稱「英國屬於耶穌」</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809255?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810036?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>以色列防禦利器「鐵穹」的造價和運作原理？它有弱點！</t>
+          <t>樂極生悲！17歲青年海灘拍攝畢業照 下水玩遭急流捲走遇溺亡</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809268?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809704?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>以伊持續互轟 油價開盤一度飆5% 美股期指平穩 金價逼近新高</t>
+          <t>謀殺親夫！新郎度蜜月被殺棄屍山谷 新娘自首與情夫策畫後潛逃</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809275?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809562?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>【專家之眼】哈佛陷入財政困境都是川普害的？背離初心</t>
+          <t>胸前掛「護身佛牌」剛好擋下子彈 商人遭仇家連轟兩槍奇蹟保住性命</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809276?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8809416?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>以色列伊朗最新戰況一次看！川普看好「打一仗後」談成協議</t>
+          <t>1股黃金股 川普給日本製鐵戴上緊箍咒！恐改寫外資併購遊戲規則</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809285?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809626?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>川普閱兵美夢變噩夢 內憂外患夾擊79歲生日樂不起來</t>
+          <t>曾是學霸當過「假面浪人」 他棄東大醫學系改當哲學家</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8808608?from=udn-category</t>
+          <t>https://vip.udn.com/vip/story/121937/8797788?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>川普稱以色列和伊朗可能要先「打一打」再談</t>
+          <t>現實版007的上司! 英國軍情六處首任女處長「C夫人」上任</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809298?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809571?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>川普擋下以色列暗殺伊朗最高領袖！美方暗示踩1紅線才考慮</t>
+          <t>川普是全場變數！G7峰會加拿大登場氣氛緊張 專家盼無爆炸性衝突</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809304?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809464?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>汽車救星空降時尚界！Gucci母公司開雲 挖角雷諾CEO梅奧跨界操盤</t>
+          <t>驅逐非法移民擬再擴大 川普點名洛杉磯、芝加哥和紐約</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809319?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809446?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>美中貿易戰休兵擬再延90天 倫敦談判未觸及軍用稀土問題</t>
+          <t>阿布達比國營事業出價190 億美元欲收購澳洲Santos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8809028?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809444?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+          <t>美議員連環暗殺槍手落網！FBI懸賞150萬 狂過濾400多條線索</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809694?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>掃蕩非法移民 川普政策被迫轉彎</t>
+          <t>觀光客小心 在巴塞隆納遇水槍伺候！南歐多城爆示威 抗議過度旅遊</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809089?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809415?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>以伊衝突擴及能源設施 中東能源供應拉警報</t>
+          <t>以色列與伊朗持續互轟：川普施壓伊朗達成核協議、反對以色列刺殺伊朗最高領袖</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809155?from=udn-catelistnews_ch2</t>
+          <t>https://global.udn.com/global_vision/story/8662/8810063</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>令和米騷亂／日本米不上談判桌 會因川普破例？</t>
+          <t>因應擁核以滿足用電聲浪 亞銀考慮解除核電融資禁令</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808985?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810120?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>令和米騷亂／氣候+政策致米價翻倍 日本米荒非偶然</t>
+          <t>新飛彈突防以色列 分析：伊朗恐用荷莫茲海峽籌碼「避免美以聯手是上策」</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808983?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810364?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>令和米騷亂／稻米政策 日本參院選舉關鍵</t>
+          <t>以色列為何開戰？以軍官曝伊朗「祕密計畫」：幾天內就可造15枚核彈</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8809017?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810432?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>令和米騷亂／脆弱糧食供應鏈 日本國安隱憂</t>
+          <t>以色列為何與伊朗開戰？以軍官曝伊朗「祕密計畫」</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8809024?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810432?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>印度下令徹查波音787 不排除停飛</t>
+          <t>伊朗徹夜發動飛彈攻勢 以色列至少新增5死100傷</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8809064?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810390?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>又空難 印度直升機神廟旁墜毀7死</t>
+          <t>伊朗議長爆「內鬼通外敵」！擬組伊斯蘭聯軍對抗以色列</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8809067?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810398?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>杜拜67層高樓大火 3280人暗夜逃、奇蹟無傷亡</t>
+          <t>印航波音787又出包！香港起飛「空中突遇技術問題」緊急返航</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809101?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8810328?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>聯合新聞網</t>
+          <t>外媒分析：三個憤怒的老男人 可能害死我們所有的人！</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808954?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810320?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>川普速報／川普成G7最大變數 日相不妥協汽車關稅</t>
+          <t>以色列擬暗殺伊朗最高領袖 被川普攔下 內唐亞胡：川是伊朗頭號暗殺對象</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8809302?from=udn-category</t>
+          <t>https://udn.com/news/story/124061/8809530?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>路透曝中美倫敦談判細節 陸未鬆綁軍用稀土</t>
+          <t>南韓央行：人民幣可能左右韓元波動 貿易戰時期關聯更高</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8809062?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810114?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>德國開綠燈 歐盟擬投資核電8.4兆元</t>
+          <t>中東升溫 英派軍機增援 德籲會談：各方施壓才能結束衝突</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809057?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809980?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>無王日抗議潮…全美示威 川普閱兵</t>
+          <t>美軍前高層：2027攻台論像宣傳口號 這1年非決定性時刻</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809147?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809574?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>被針對？美擬增36國旅遊禁令 有25國在非洲</t>
+          <t>伊朗最高領袖哈米尼陷危機 伊軍弱點暴露無遺</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809097?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809682?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>衝突升級！以伊互轟 全球最大天然氣田大火</t>
+          <t>路透：美國敦促越南和中國科技「脫鉤」少用陸製零組件</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809148?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810251?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>會以伊外長 王毅表態 譴責以色列侵犯伊朗</t>
+          <t>明州槍手有5子女「充滿愛心」 好友收訣別簡訊：我時日無多</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809161?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810168?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>G7峰會開幕 將討論中東危機 英國派軍機赴中東</t>
+          <t>學者：美國政治暴力已成常態 動機理由不一</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809159?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810153?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>烏克蘭、以色列展示 無人機敵境突襲 改變戰爭新打法</t>
+          <t>CNN：川普締造和平的人設崩塌？3原因恐被迫參戰以伊衝突</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809157?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810238?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>以色列丕變 走向中東區域霸權</t>
+          <t>抱娃用餐店員主動提供「1服務」 5寶媽感動：眼淚要掉下來了</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809156?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8810067?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>阻川普進逼 馬克宏訪格陵蘭「發出訊號」</t>
+          <t>買方進場良機須備足自備款</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809105?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806038?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,794 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>國會預算處：大又美法案恐致收入最低10%家庭年損1600元</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809506?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fed今年恐只降息一次 以伊衝突火爆讓這一風險大增</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809401?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>「身高」關係競爭力？長得高有優勢 韓小學生瘋打針投資未來</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8809254?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>簡立峰專欄／美晶片管制能擋陸？中東或改變全球AI版圖</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://vip.udn.com/vip/story/122861/8808276?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>以色列丕變 走向中東區域霸權</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809156?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>烏克蘭、以色列展示 無人機敵境突襲 改變戰爭新打法</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8809157?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>G7峰會開幕 將討論中東危機 英國派軍機赴中東</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809159?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>會以伊外長 王毅表態 譴責以色列侵犯伊朗</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809161?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>衝突升級！以伊互轟 全球最大天然氣田大火</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809148?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>被針對？美擬增36國旅遊禁令 有25國在非洲</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809097?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>無王日抗議潮…全美示威 川普閱兵</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809147?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>德國開綠燈 歐盟擬投資核電8.4兆元</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809057?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>以伊衝突擴及能源設施 中東能源供應拉警報</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809155?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>阻川普進逼 馬克宏訪格陵蘭「發出訊號」</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8809105?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>聯合新聞網</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124068/8808954?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>杜拜67層高樓大火 3280人暗夜逃、奇蹟無傷亡</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8809101?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>又空難 印度直升機神廟旁墜毀7死</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124515/8809067?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>印度下令徹查波音787 不排除停飛</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124515/8809064?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>令和米騷亂／脆弱糧食供應鏈 日本國安隱憂</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124068/8809024?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>令和米騷亂／稻米政策 日本參院選舉關鍵</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124068/8809017?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>令和米騷亂／氣候+政策致米價翻倍 日本米荒非偶然</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124068/8808983?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>令和米騷亂／日本米不上談判桌 會因川普破例？</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124068/8808985?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>路透曝中美倫敦談判細節 陸未鬆綁軍用稀土</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8809062?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>掃蕩非法移民 川普政策被迫轉彎</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809089?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>美中貿易戰休兵擬再延90天 倫敦談判未觸及軍用稀土問題</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8809028?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>川普速報／川普成G7最大變數 日相不妥協汽車關稅</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8809302?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>汽車救星空降時尚界！Gucci母公司開雲 挖角雷諾CEO梅奧跨界操盤</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809319?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>川普擋下以色列暗殺伊朗最高領袖！美方暗示踩1紅線才考慮</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809304?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>川普稱以色列和伊朗可能要先「打一打」再談</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809298?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>川普閱兵美夢變噩夢 內憂外患夾擊79歲生日樂不起來</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8808608?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>以色列伊朗最新戰況一次看！川普看好「打一仗後」談成協議</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809285?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>【專家之眼】哈佛陷入財政困境都是川普害的？背離初心</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809276?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>以伊持續互轟 油價開盤一度飆5% 美股期指平穩 金價逼近新高</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809275?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>以色列防禦利器「鐵穹」的造價和運作原理？它有弱點！</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809268?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>本周開盤前 五件國際事不可不知</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809255?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>以色列空襲伊朗美國卻裝瞎 是全球秩序重組的前夕？</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8807979?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>全美「無王日」盤點反川示威地點、人數 圖解明州2議員遇襲處</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122664/8809152?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>葛謨助理賀立寧閃辭 被爆曾任中資高層、隱瞞對中關係</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809211?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>因應當前經濟 近8成美國人改變花錢方式</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809209?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>韓刺激經濟 要砸146億美元</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808984?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>美推進穩定幣 零售商按讚 可望作為與信用卡商議價籌碼</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809036?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>東協躍南韓最大出口市場 逾20年來首次超車大陸</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808980?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>川普靠加密幣賺5,740萬美元</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809041?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>伊朗再襲以色列 美國駐特拉維夫領事館遭波及受損</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8810442?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>報案抵現場未達5分鐘反應時間目標 菲律賓8城市警長遭撤換</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8810392?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
